--- a/data/output/seat_status_updated_classroom_image12.xlsx
+++ b/data/output/seat_status_updated_classroom_image12.xlsx
@@ -567,13 +567,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1125.814697265625</v>
+        <v>1125.814819335938</v>
       </c>
       <c r="B5" t="n">
-        <v>610.1145629882812</v>
+        <v>610.1146240234375</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.769409179688</v>
+        <v>1200.769287109375</v>
       </c>
       <c r="D5" t="n">
         <v>657.3201904296875</v>
@@ -837,19 +837,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84.45109558105469</v>
+        <v>84.45108032226562</v>
       </c>
       <c r="B14" t="n">
-        <v>616.6791381835938</v>
+        <v>616.6790771484375</v>
       </c>
       <c r="C14" t="n">
-        <v>206.3239593505859</v>
+        <v>206.3239898681641</v>
       </c>
       <c r="D14" t="n">
         <v>786.3602294921875</v>
       </c>
       <c r="E14" t="n">
-        <v>145.3875274658203</v>
+        <v>145.3875427246094</v>
       </c>
       <c r="F14" t="n">
         <v>701.5196533203125</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1556.228515625</v>
+        <v>1556.228637695312</v>
       </c>
       <c r="B16" t="n">
         <v>706.8097534179688</v>
@@ -990,19 +990,19 @@
         <v>115.7835540771484</v>
       </c>
       <c r="B19" t="n">
-        <v>677.7320556640625</v>
+        <v>677.732177734375</v>
       </c>
       <c r="C19" t="n">
         <v>278.8323974609375</v>
       </c>
       <c r="D19" t="n">
-        <v>850.528076171875</v>
+        <v>850.5281982421875</v>
       </c>
       <c r="E19" t="n">
         <v>197.3079833984375</v>
       </c>
       <c r="F19" t="n">
-        <v>764.1300659179688</v>
+        <v>764.1301879882812</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>832.919921875</v>
+        <v>832.9198608398438</v>
       </c>
       <c r="B20" t="n">
         <v>735.2488403320312</v>
       </c>
       <c r="C20" t="n">
-        <v>880.513916015625</v>
+        <v>880.5139770507812</v>
       </c>
       <c r="D20" t="n">
         <v>819.7266845703125</v>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1132.585693359375</v>
+        <v>1132.585815429688</v>
       </c>
       <c r="B21" t="n">
-        <v>741.4110717773438</v>
+        <v>741.4111328125</v>
       </c>
       <c r="C21" t="n">
-        <v>1294.633056640625</v>
+        <v>1294.633178710938</v>
       </c>
       <c r="D21" t="n">
-        <v>827.8931274414062</v>
+        <v>827.8931884765625</v>
       </c>
       <c r="E21" t="n">
-        <v>1213.609375</v>
+        <v>1213.609497070312</v>
       </c>
       <c r="F21" t="n">
-        <v>784.652099609375</v>
+        <v>784.6521606445312</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1140,19 +1140,19 @@
         <v>866.8123779296875</v>
       </c>
       <c r="B24" t="n">
-        <v>760.72412109375</v>
+        <v>760.7243041992188</v>
       </c>
       <c r="C24" t="n">
         <v>1083.017333984375</v>
       </c>
       <c r="D24" t="n">
-        <v>1066.103271484375</v>
+        <v>1066.103393554688</v>
       </c>
       <c r="E24" t="n">
         <v>974.9148559570312</v>
       </c>
       <c r="F24" t="n">
-        <v>913.4136962890625</v>
+        <v>913.413818359375</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>

--- a/data/output/seat_status_updated_classroom_image12.xlsx
+++ b/data/output/seat_status_updated_classroom_image12.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1126.807495117188</v>
+        <v>1126.842163085938</v>
       </c>
       <c r="B2" t="n">
-        <v>603.8521728515625</v>
+        <v>603.7954711914062</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.037475585938</v>
+        <v>1195.082275390625</v>
       </c>
       <c r="D2" t="n">
-        <v>629.4614868164062</v>
+        <v>629.3998413085938</v>
       </c>
       <c r="E2" t="n">
-        <v>1160.922485351562</v>
+        <v>1160.962158203125</v>
       </c>
       <c r="F2" t="n">
-        <v>616.6568603515625</v>
+        <v>616.59765625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>752.4661254882812</v>
+        <v>752.4228515625</v>
       </c>
       <c r="B3" t="n">
-        <v>566.5886840820312</v>
+        <v>566.240478515625</v>
       </c>
       <c r="C3" t="n">
-        <v>819.962890625</v>
+        <v>819.9524536132812</v>
       </c>
       <c r="D3" t="n">
-        <v>669.8992309570312</v>
+        <v>669.9329223632812</v>
       </c>
       <c r="E3" t="n">
-        <v>786.2144775390625</v>
+        <v>786.1876220703125</v>
       </c>
       <c r="F3" t="n">
-        <v>618.2439575195312</v>
+        <v>618.086669921875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1217.095581054688</v>
+        <v>1217.122436523438</v>
       </c>
       <c r="B4" t="n">
-        <v>610.26025390625</v>
+        <v>610.2268676757812</v>
       </c>
       <c r="C4" t="n">
-        <v>1292.084594726562</v>
+        <v>1291.9873046875</v>
       </c>
       <c r="D4" t="n">
-        <v>644.6759033203125</v>
+        <v>644.6661376953125</v>
       </c>
       <c r="E4" t="n">
-        <v>1254.590087890625</v>
+        <v>1254.554931640625</v>
       </c>
       <c r="F4" t="n">
-        <v>627.4680786132812</v>
+        <v>627.446533203125</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1125.814819335938</v>
+        <v>1125.801025390625</v>
       </c>
       <c r="B5" t="n">
-        <v>610.1146240234375</v>
+        <v>609.9813842773438</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.769287109375</v>
+        <v>1200.865478515625</v>
       </c>
       <c r="D5" t="n">
-        <v>657.3201904296875</v>
+        <v>657.2608032226562</v>
       </c>
       <c r="E5" t="n">
-        <v>1163.2919921875</v>
+        <v>1163.333251953125</v>
       </c>
       <c r="F5" t="n">
-        <v>633.7174072265625</v>
+        <v>633.62109375</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1317.692749023438</v>
+        <v>1317.835327148438</v>
       </c>
       <c r="B6" t="n">
-        <v>622.2228393554688</v>
+        <v>622.228271484375</v>
       </c>
       <c r="C6" t="n">
-        <v>1383.470947265625</v>
+        <v>1383.732543945312</v>
       </c>
       <c r="D6" t="n">
-        <v>655.1775512695312</v>
+        <v>655.3079223632812</v>
       </c>
       <c r="E6" t="n">
-        <v>1350.581787109375</v>
+        <v>1350.783935546875</v>
       </c>
       <c r="F6" t="n">
-        <v>638.7001953125</v>
+        <v>638.76806640625</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>242.159912109375</v>
+        <v>242.4279327392578</v>
       </c>
       <c r="B7" t="n">
-        <v>614.8919677734375</v>
+        <v>614.825439453125</v>
       </c>
       <c r="C7" t="n">
-        <v>312.0944213867188</v>
+        <v>311.9494323730469</v>
       </c>
       <c r="D7" t="n">
-        <v>666.0714721679688</v>
+        <v>666.1150512695312</v>
       </c>
       <c r="E7" t="n">
-        <v>277.1271667480469</v>
+        <v>277.1886901855469</v>
       </c>
       <c r="F7" t="n">
-        <v>640.481689453125</v>
+        <v>640.47021484375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1366.77734375</v>
+        <v>1366.778076171875</v>
       </c>
       <c r="B8" t="n">
-        <v>635.2453002929688</v>
+        <v>635.3065795898438</v>
       </c>
       <c r="C8" t="n">
-        <v>1437.5185546875</v>
+        <v>1437.682006835938</v>
       </c>
       <c r="D8" t="n">
-        <v>673.8521728515625</v>
+        <v>673.8413696289062</v>
       </c>
       <c r="E8" t="n">
-        <v>1402.14794921875</v>
+        <v>1402.22998046875</v>
       </c>
       <c r="F8" t="n">
-        <v>654.5487060546875</v>
+        <v>654.573974609375</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>317.091552734375</v>
+        <v>317.2566223144531</v>
       </c>
       <c r="B9" t="n">
-        <v>633.1736450195312</v>
+        <v>633.33984375</v>
       </c>
       <c r="C9" t="n">
-        <v>396.22998046875</v>
+        <v>396.2291564941406</v>
       </c>
       <c r="D9" t="n">
-        <v>683.4069213867188</v>
+        <v>683.2675170898438</v>
       </c>
       <c r="E9" t="n">
-        <v>356.6607666015625</v>
+        <v>356.7428894042969</v>
       </c>
       <c r="F9" t="n">
-        <v>658.290283203125</v>
+        <v>658.3037109375</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1124.021484375</v>
+        <v>1124.004150390625</v>
       </c>
       <c r="B10" t="n">
-        <v>641.9675903320312</v>
+        <v>641.9559936523438</v>
       </c>
       <c r="C10" t="n">
-        <v>1230.094116210938</v>
+        <v>1230.220581054688</v>
       </c>
       <c r="D10" t="n">
-        <v>686.7908935546875</v>
+        <v>686.8690185546875</v>
       </c>
       <c r="E10" t="n">
-        <v>1177.057861328125</v>
+        <v>1177.1123046875</v>
       </c>
       <c r="F10" t="n">
-        <v>664.3792724609375</v>
+        <v>664.4124755859375</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>956.4498901367188</v>
+        <v>956.4227905273438</v>
       </c>
       <c r="B11" t="n">
-        <v>643.6512451171875</v>
+        <v>643.6742553710938</v>
       </c>
       <c r="C11" t="n">
-        <v>1052.6025390625</v>
+        <v>1052.499755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>698.978271484375</v>
+        <v>699.2254028320312</v>
       </c>
       <c r="E11" t="n">
-        <v>1004.526245117188</v>
+        <v>1004.461303710938</v>
       </c>
       <c r="F11" t="n">
-        <v>671.3147583007812</v>
+        <v>671.4498291015625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1270.529296875</v>
+        <v>1270.735107421875</v>
       </c>
       <c r="B12" t="n">
-        <v>660.2493896484375</v>
+        <v>660.3864135742188</v>
       </c>
       <c r="C12" t="n">
-        <v>1400.115234375</v>
+        <v>1400.473510742188</v>
       </c>
       <c r="D12" t="n">
-        <v>706.3375244140625</v>
+        <v>706.3947143554688</v>
       </c>
       <c r="E12" t="n">
-        <v>1335.322265625</v>
+        <v>1335.604248046875</v>
       </c>
       <c r="F12" t="n">
-        <v>683.29345703125</v>
+        <v>683.3905639648438</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1509.2412109375</v>
+        <v>1509.1943359375</v>
       </c>
       <c r="B13" t="n">
-        <v>670.1047973632812</v>
+        <v>670.147705078125</v>
       </c>
       <c r="C13" t="n">
         <v>1600</v>
       </c>
       <c r="D13" t="n">
-        <v>711.6773681640625</v>
+        <v>711.7490844726562</v>
       </c>
       <c r="E13" t="n">
-        <v>1554.62060546875</v>
+        <v>1554.59716796875</v>
       </c>
       <c r="F13" t="n">
-        <v>690.89111328125</v>
+        <v>690.9483642578125</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84.45108032226562</v>
+        <v>84.38153839111328</v>
       </c>
       <c r="B14" t="n">
-        <v>616.6790771484375</v>
+        <v>615.8438110351562</v>
       </c>
       <c r="C14" t="n">
-        <v>206.3239898681641</v>
+        <v>206.8485870361328</v>
       </c>
       <c r="D14" t="n">
-        <v>786.3602294921875</v>
+        <v>786.406982421875</v>
       </c>
       <c r="E14" t="n">
-        <v>145.3875427246094</v>
+        <v>145.6150665283203</v>
       </c>
       <c r="F14" t="n">
-        <v>701.5196533203125</v>
+        <v>701.1253662109375</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1150.277099609375</v>
+        <v>1149.765502929688</v>
       </c>
       <c r="B15" t="n">
-        <v>679.3932495117188</v>
+        <v>679.3759765625</v>
       </c>
       <c r="C15" t="n">
-        <v>1272.820434570312</v>
+        <v>1272.797241210938</v>
       </c>
       <c r="D15" t="n">
-        <v>733.8617553710938</v>
+        <v>733.8851318359375</v>
       </c>
       <c r="E15" t="n">
-        <v>1211.548828125</v>
+        <v>1211.281372070312</v>
       </c>
       <c r="F15" t="n">
-        <v>706.6275024414062</v>
+        <v>706.6305541992188</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1556.228637695312</v>
+        <v>1556.327514648438</v>
       </c>
       <c r="B16" t="n">
-        <v>706.8097534179688</v>
+        <v>706.7621459960938</v>
       </c>
       <c r="C16" t="n">
         <v>1600</v>
       </c>
       <c r="D16" t="n">
-        <v>742.368408203125</v>
+        <v>742.358154296875</v>
       </c>
       <c r="E16" t="n">
-        <v>1578.1142578125</v>
+        <v>1578.163818359375</v>
       </c>
       <c r="F16" t="n">
-        <v>724.589111328125</v>
+        <v>724.5601806640625</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1285.670776367188</v>
+        <v>1285.968627929688</v>
       </c>
       <c r="B17" t="n">
-        <v>705.4364624023438</v>
+        <v>705.3778076171875</v>
       </c>
       <c r="C17" t="n">
-        <v>1427.98583984375</v>
+        <v>1427.849731445312</v>
       </c>
       <c r="D17" t="n">
-        <v>775.3232421875</v>
+        <v>775.2627563476562</v>
       </c>
       <c r="E17" t="n">
-        <v>1356.828369140625</v>
+        <v>1356.9091796875</v>
       </c>
       <c r="F17" t="n">
-        <v>740.3798828125</v>
+        <v>740.3203125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>963.9080810546875</v>
+        <v>964.1004028320312</v>
       </c>
       <c r="B18" t="n">
-        <v>711.4513549804688</v>
+        <v>711.443603515625</v>
       </c>
       <c r="C18" t="n">
-        <v>1095.064575195312</v>
+        <v>1095.04052734375</v>
       </c>
       <c r="D18" t="n">
-        <v>785.5228271484375</v>
+        <v>785.5424194335938</v>
       </c>
       <c r="E18" t="n">
-        <v>1029.486328125</v>
+        <v>1029.570434570312</v>
       </c>
       <c r="F18" t="n">
-        <v>748.487060546875</v>
+        <v>748.4930419921875</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -987,22 +987,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>115.7835540771484</v>
+        <v>115.959831237793</v>
       </c>
       <c r="B19" t="n">
-        <v>677.732177734375</v>
+        <v>677.3299560546875</v>
       </c>
       <c r="C19" t="n">
-        <v>278.8323974609375</v>
+        <v>279.155517578125</v>
       </c>
       <c r="D19" t="n">
-        <v>850.5281982421875</v>
+        <v>851.1786499023438</v>
       </c>
       <c r="E19" t="n">
-        <v>197.3079833984375</v>
+        <v>197.5576782226562</v>
       </c>
       <c r="F19" t="n">
-        <v>764.1301879882812</v>
+        <v>764.2542724609375</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>832.9198608398438</v>
+        <v>832.82568359375</v>
       </c>
       <c r="B20" t="n">
-        <v>735.2488403320312</v>
+        <v>735.2169799804688</v>
       </c>
       <c r="C20" t="n">
-        <v>880.5139770507812</v>
+        <v>880.598388671875</v>
       </c>
       <c r="D20" t="n">
-        <v>819.7266845703125</v>
+        <v>819.639892578125</v>
       </c>
       <c r="E20" t="n">
-        <v>856.7169189453125</v>
+        <v>856.7120361328125</v>
       </c>
       <c r="F20" t="n">
-        <v>777.48779296875</v>
+        <v>777.428466796875</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1132.585815429688</v>
+        <v>1132.821044921875</v>
       </c>
       <c r="B21" t="n">
-        <v>741.4111328125</v>
+        <v>741.3275756835938</v>
       </c>
       <c r="C21" t="n">
-        <v>1294.633178710938</v>
+        <v>1294.415283203125</v>
       </c>
       <c r="D21" t="n">
-        <v>827.8931884765625</v>
+        <v>827.9004516601562</v>
       </c>
       <c r="E21" t="n">
-        <v>1213.609497070312</v>
+        <v>1213.6181640625</v>
       </c>
       <c r="F21" t="n">
-        <v>784.6521606445312</v>
+        <v>784.614013671875</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1355.166259765625</v>
+        <v>1355.078125</v>
       </c>
       <c r="B22" t="n">
-        <v>778.9389038085938</v>
+        <v>778.919189453125</v>
       </c>
       <c r="C22" t="n">
-        <v>1559.8291015625</v>
+        <v>1559.866333007812</v>
       </c>
       <c r="D22" t="n">
-        <v>893.9121704101562</v>
+        <v>893.9053344726562</v>
       </c>
       <c r="E22" t="n">
-        <v>1457.497680664062</v>
+        <v>1457.47216796875</v>
       </c>
       <c r="F22" t="n">
-        <v>836.425537109375</v>
+        <v>836.4122314453125</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1107,22 +1107,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>279.8406677246094</v>
+        <v>279.8435974121094</v>
       </c>
       <c r="B23" t="n">
-        <v>739.6917724609375</v>
+        <v>739.5157470703125</v>
       </c>
       <c r="C23" t="n">
-        <v>484.9048156738281</v>
+        <v>484.5899047851562</v>
       </c>
       <c r="D23" t="n">
-        <v>952.117431640625</v>
+        <v>951.7843017578125</v>
       </c>
       <c r="E23" t="n">
-        <v>382.3727416992188</v>
+        <v>382.2167358398438</v>
       </c>
       <c r="F23" t="n">
-        <v>845.9046020507812</v>
+        <v>845.6500244140625</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>866.8123779296875</v>
+        <v>867.091064453125</v>
       </c>
       <c r="B24" t="n">
-        <v>760.7243041992188</v>
+        <v>761.7169189453125</v>
       </c>
       <c r="C24" t="n">
-        <v>1083.017333984375</v>
+        <v>1083.000366210938</v>
       </c>
       <c r="D24" t="n">
-        <v>1066.103393554688</v>
+        <v>1065.8642578125</v>
       </c>
       <c r="E24" t="n">
-        <v>974.9148559570312</v>
+        <v>975.0457153320312</v>
       </c>
       <c r="F24" t="n">
-        <v>913.413818359375</v>
+        <v>913.7905883789062</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1167,22 +1167,22 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1052.97021484375</v>
+        <v>1053.372192382812</v>
       </c>
       <c r="B25" t="n">
-        <v>758.56787109375</v>
+        <v>757.3746948242188</v>
       </c>
       <c r="C25" t="n">
-        <v>1308.462768554688</v>
+        <v>1308.917358398438</v>
       </c>
       <c r="D25" t="n">
-        <v>1093.23779296875</v>
+        <v>1093.34765625</v>
       </c>
       <c r="E25" t="n">
-        <v>1180.716552734375</v>
+        <v>1181.144775390625</v>
       </c>
       <c r="F25" t="n">
-        <v>925.90283203125</v>
+        <v>925.3612060546875</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1197,22 +1197,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1278.42431640625</v>
+        <v>1278.103271484375</v>
       </c>
       <c r="B26" t="n">
-        <v>803.8125610351562</v>
+        <v>804.6558837890625</v>
       </c>
       <c r="C26" t="n">
-        <v>1586.514526367188</v>
+        <v>1586.690673828125</v>
       </c>
       <c r="D26" t="n">
-        <v>1196.004272460938</v>
+        <v>1196.03076171875</v>
       </c>
       <c r="E26" t="n">
-        <v>1432.469482421875</v>
+        <v>1432.39697265625</v>
       </c>
       <c r="F26" t="n">
-        <v>999.908447265625</v>
+        <v>1000.343322753906</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
